--- a/biology/Zoologie/Bothus_mancus/Bothus_mancus.xlsx
+++ b/biology/Zoologie/Bothus_mancus/Bothus_mancus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Turbot tropical
 Le turbot tropical (Bothus mancus) est une espèce de poissons plats de la famille des Bothidae. 
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un poisson plat dont la face dorsale imite le sable, mais peut aussi faire apparaître des rosettes d'un bleu électrique destinées à impressionner un agresseur. 
-Sa taille est en moyenne de 40 cm[2], au maximum de 51 cm[3].
+Sa taille est en moyenne de 40 cm, au maximum de 51 cm.
 			Camouflé
 			Camouflé
 			En livrée d'intimidation
@@ -551,9 +565,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est très présente dans les eaux peu profondes (150 mètres) de l'Indo-Pacifique, mer Rouge incluse, ainsi que dans les régions plus chaudes du Pacifique oriental, sur des fonds de préférence mixtes[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est très présente dans les eaux peu profondes (150 mètres) de l'Indo-Pacifique, mer Rouge incluse, ainsi que dans les régions plus chaudes du Pacifique oriental, sur des fonds de préférence mixtes.
 </t>
         </is>
       </c>
@@ -582,7 +598,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le turbot tropical est principalement nocturne, mais peut être parfois actif de jour. Il chasse de petits poissons, des crevettes et des crabes. Il est capable de se camoufler en changeant de couleur. La période de reproduction va de la fin de l'hiver jusqu'au début du printemps. La femelle pond 2 à 3 millions d'œufs, que le mâle fertilise. Les œufs sont ensuite portés par les courants avant d'éclore quinze jours plus tard.
 </t>
